--- a/boards/on-robot/control-v4.1/control-bom.xlsx
+++ b/boards/on-robot/control-v4.1/control-bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ber20\Documents\GitHub\robocup-pcb\boards\on-robot\control-v3.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ber20\Documents\GitHub\robocup-pcb\boards\on-robot\control-v4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F516B6EF-AD42-4A2C-BC0E-C623D887469F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11D3DB7-8A08-46D7-9663-21760B1B1F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="control-bom" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="218">
   <si>
     <t>Qty</t>
   </si>
@@ -661,6 +661,42 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/Xilinx/XC3S250E-4TQG144C?qs=rrS6PyfT74eQmLVe%2FvbAxQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/koa-speer-electronics-inc/RK73Z2ARTTD/11629232</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/taiyo-yuden/LMK107SD223KA-T/930454</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kyocera-avx/06035C104KAT4A/1600047</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-beyschlag-draloric-bc-components/MCT0603PD1003DP500/7245012</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/ESR03EZPF1002/1983429</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/ESR03EZPF1503/1983435</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/RCS0603160KFKEA/5868722</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/ESR03EZPF1001/1983428</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/murata-electronics/GRT188R61H105KE13D/5416752</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/murata-electronics/GRT188R61H225KE13D/5416754</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/te-connectivity-passive-product/CRGP0603F270K/8577047</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/RCS060329K4FKEA/5868641</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1540,22 +1576,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="130" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1620,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1610,10 +1646,10 @@
         <v>196</v>
       </c>
       <c r="I2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1639,10 +1675,10 @@
         <v>196</v>
       </c>
       <c r="I3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>22</v>
       </c>
@@ -1668,10 +1704,10 @@
         <v>196</v>
       </c>
       <c r="I4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>21</v>
       </c>
@@ -1697,10 +1733,10 @@
         <v>196</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1726,7 +1762,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1752,10 +1788,10 @@
         <v>196</v>
       </c>
       <c r="I7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1781,10 +1817,10 @@
         <v>196</v>
       </c>
       <c r="I8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1810,10 +1846,10 @@
         <v>196</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1839,10 +1875,10 @@
         <v>196</v>
       </c>
       <c r="I10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1868,10 +1904,10 @@
         <v>196</v>
       </c>
       <c r="I11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1897,10 +1933,10 @@
         <v>196</v>
       </c>
       <c r="I12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1926,10 +1962,10 @@
         <v>196</v>
       </c>
       <c r="I13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1958,7 +1994,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1984,10 +2020,10 @@
         <v>196</v>
       </c>
       <c r="I15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2016,7 +2052,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2045,7 +2081,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2071,10 +2107,10 @@
         <v>196</v>
       </c>
       <c r="I18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2100,10 +2136,10 @@
         <v>196</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2132,7 +2168,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2158,7 +2194,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2187,7 +2223,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>9</v>
       </c>
@@ -2216,7 +2252,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2242,7 +2278,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2271,7 +2307,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2300,7 +2336,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2329,7 +2365,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2358,7 +2394,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2387,7 +2423,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2413,7 +2449,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2442,7 +2478,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2471,7 +2507,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2497,7 +2533,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2526,7 +2562,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2555,7 +2591,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2581,7 +2617,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2607,7 +2643,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2633,7 +2669,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2659,7 +2695,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>9</v>
       </c>
@@ -2685,7 +2721,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2711,7 +2747,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2740,7 +2776,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2766,7 +2802,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2795,7 +2831,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>30</v>
       </c>
@@ -2821,7 +2857,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2847,7 +2883,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2873,7 +2909,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2902,7 +2938,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2928,7 +2964,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2954,7 +2990,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2983,7 +3019,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>7</v>
       </c>
@@ -3009,7 +3045,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3038,7 +3074,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3064,7 +3100,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1</v>
       </c>

--- a/boards/on-robot/control-v4.1/control-bom.xlsx
+++ b/boards/on-robot/control-v4.1/control-bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ber20\Documents\GitHub\robocup-pcb\boards\on-robot\control-v4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11D3DB7-8A08-46D7-9663-21760B1B1F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD17A501-6164-42AC-A507-018AEF73E577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="220">
   <si>
     <t>Qty</t>
   </si>
@@ -697,6 +697,12 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/vishay-dale/RCS060329K4FKEA/5868641</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/murata-electronics/GRT21BR61C226ME13L/5416805</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/RC1608F3012CS/3965094</t>
   </si>
 </sst>
 </file>
@@ -1576,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2078,7 +2084,7 @@
         <v>196</v>
       </c>
       <c r="I17" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -2165,7 +2171,7 @@
         <v>196</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -2190,7 +2196,7 @@
       <c r="H21" t="s">
         <v>196</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3133,11 +3139,12 @@
   <hyperlinks>
     <hyperlink ref="I25" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I24" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I21" r:id="rId3" xr:uid="{3D3A11C3-2748-4991-AC38-D7F6C4D2FFE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>